--- a/src/test/java/dataEngine/Configuration - Assets 5.xlsx
+++ b/src/test/java/dataEngine/Configuration - Assets 5.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="13290"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Test Steps" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -586,6 +583,9 @@
   </si>
   <si>
     <t>ACTIVE, DISPOSE, MOTHBALL, NOTCOM, PROPOSED, UNDERCON, IMPORTED</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -693,8 +693,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -992,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,16 +1067,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="9">
@@ -1058,73 +1086,73 @@
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="9">
         <v>1</v>
@@ -1133,21 +1161,21 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="9">
         <v>1</v>
@@ -1156,21 +1184,21 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="6" t="b">
         <v>1</v>
@@ -1179,21 +1207,21 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="9">
         <v>1</v>
@@ -1202,21 +1230,21 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9">
         <v>1</v>
@@ -1225,21 +1253,21 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6" t="b">
         <v>1</v>
@@ -1248,21 +1276,21 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1271,21 +1299,21 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
@@ -1294,21 +1322,21 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="6" t="b">
         <v>1</v>
@@ -1317,21 +1345,21 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="9">
         <v>1</v>
@@ -1340,21 +1368,21 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="9">
         <v>1</v>
@@ -1363,21 +1391,21 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="9">
         <v>1</v>
@@ -1386,21 +1414,21 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="9">
         <v>1</v>
@@ -1409,44 +1437,44 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="H18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="9">
         <v>1</v>
@@ -1455,21 +1483,21 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="9">
         <v>1</v>
@@ -1478,21 +1506,21 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H21" s="6" t="b">
         <v>1</v>
@@ -1501,21 +1529,21 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="9">
         <v>1</v>
@@ -1524,21 +1552,21 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" s="9">
         <v>1</v>
@@ -1547,21 +1575,21 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="6" t="b">
         <v>1</v>
@@ -1570,21 +1598,21 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="9">
         <v>1</v>
@@ -1593,21 +1621,21 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="9">
         <v>1</v>
@@ -1616,21 +1644,21 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="6" t="b">
         <v>1</v>
@@ -1639,21 +1667,21 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="9">
         <v>1</v>
@@ -1662,13 +1690,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1676,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" s="9">
         <v>1</v>
@@ -1685,21 +1713,21 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="12">
         <v>1</v>
@@ -1708,21 +1736,21 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H31" s="6" t="b">
         <v>1</v>
@@ -1731,21 +1759,21 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H32" s="6" t="b">
         <v>1</v>
@@ -1754,21 +1782,21 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="12">
         <v>1</v>
@@ -1777,21 +1805,21 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H34" s="6" t="b">
         <v>0</v>
@@ -1800,21 +1828,21 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" s="9">
         <v>1</v>
@@ -1823,21 +1851,21 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36" s="9">
         <v>1</v>
@@ -1846,21 +1874,21 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H37" s="6" t="b">
         <v>0</v>
@@ -1869,44 +1897,44 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" s="9">
         <v>1</v>
@@ -1915,21 +1943,21 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" s="9">
         <v>1</v>
@@ -1938,44 +1966,44 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I41" s="7"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" s="9">
         <v>1</v>
@@ -1984,13 +2012,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1998,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H43" s="9">
         <v>1</v>
@@ -2007,21 +2035,21 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="6" t="b">
         <v>0</v>
@@ -2030,21 +2058,21 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="6" t="b">
         <v>0</v>
@@ -2053,21 +2081,21 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H46" s="6" t="b">
         <v>1</v>
@@ -2076,21 +2104,21 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="6" t="b">
         <v>1</v>
@@ -2099,21 +2127,21 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="6" t="b">
         <v>1</v>
@@ -2122,21 +2150,21 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="6" t="b">
         <v>0</v>
@@ -2145,21 +2173,21 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" s="6" t="b">
         <v>0</v>
@@ -2168,21 +2196,21 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H51" s="6" t="b">
         <v>0</v>
@@ -2191,21 +2219,21 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H52" s="6" t="b">
         <v>1</v>
@@ -2214,21 +2242,21 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="6" t="b">
         <v>0</v>
@@ -2237,21 +2265,21 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="9">
         <v>1</v>
@@ -2260,21 +2288,21 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="9">
         <v>1</v>
@@ -2283,21 +2311,21 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H56" s="6" t="b">
         <v>0</v>
@@ -2306,44 +2334,44 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="I57" s="7"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="9">
         <v>1</v>
@@ -2352,21 +2380,21 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59" s="9">
         <v>1</v>
@@ -2375,44 +2403,44 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I60" s="7"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61" s="9">
         <v>1</v>
@@ -2421,21 +2449,21 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62" s="9">
         <v>1</v>
@@ -2444,21 +2472,21 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H63" s="7">
         <v>1</v>
@@ -2467,21 +2495,21 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H64" s="6" t="b">
         <v>0</v>
@@ -2490,44 +2518,44 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I65" s="7"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H66" s="9">
         <v>1</v>
@@ -2536,21 +2564,21 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H67" s="9">
         <v>1</v>
@@ -2559,21 +2587,21 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H68" s="6" t="b">
         <v>0</v>
@@ -2582,44 +2610,44 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H70" s="9">
         <v>1</v>
@@ -2628,21 +2656,21 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H71" s="9">
         <v>1</v>
@@ -2651,44 +2679,44 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I72" s="7"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H73" s="12">
         <v>1</v>
@@ -2697,13 +2725,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -2711,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H74" s="9">
         <v>1</v>
@@ -2720,21 +2748,21 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H75" s="12">
         <v>1</v>
@@ -2743,13 +2771,13 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -2757,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H76" s="9">
         <v>1</v>
@@ -2766,21 +2794,21 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H77" s="12">
         <v>1</v>
@@ -2789,13 +2817,13 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
@@ -2803,7 +2831,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H78" s="9">
         <v>1</v>
@@ -2812,21 +2840,21 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="12">
         <v>1</v>
@@ -2835,21 +2863,21 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H80" s="6" t="b">
         <v>0</v>
@@ -2858,21 +2886,21 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H81" s="6" t="b">
         <v>0</v>
@@ -2881,21 +2909,21 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H82" s="9">
         <v>1</v>
@@ -2904,21 +2932,21 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H83" s="9">
         <v>1</v>
@@ -2927,21 +2955,21 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="9">
         <v>1</v>
@@ -2950,13 +2978,13 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -2964,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H85" s="9">
         <v>1</v>
@@ -2973,67 +3001,67 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I86" s="7"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H88" s="6" t="b">
         <v>0</v>
@@ -3042,44 +3070,44 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>120</v>
       </c>
       <c r="I89" s="7"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H90" s="9">
         <v>1</v>
@@ -3088,44 +3116,44 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I91" s="7"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H92" s="9">
         <v>1</v>
@@ -3134,21 +3162,21 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H93" s="9">
         <v>1</v>
@@ -3157,67 +3185,67 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I94" s="7"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I95" s="7"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H96" s="12">
         <v>1</v>
@@ -3226,13 +3254,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
@@ -3240,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H97" s="9">
         <v>1</v>
